--- a/lab_meeting_tests/test_times.xlsx
+++ b/lab_meeting_tests/test_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\lab_meeting_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9941AC-1047-4A36-A41B-0FB953771EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F221C0-8DBB-4822-9950-11F0B11500E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,8 +370,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
